--- a/target/classes/test_OP_data.xlsx
+++ b/target/classes/test_OP_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Bike Names</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>Launch Date : Unrevealed</t>
+  </si>
+  <si>
+    <t>Used Cars</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
   </si>
 </sst>
 </file>
@@ -164,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -180,6 +210,9 @@
       <c r="C1" t="s" s="0">
         <v>29</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -191,6 +224,9 @@
       <c r="C2" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -202,6 +238,9 @@
       <c r="C3" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -213,6 +252,9 @@
       <c r="C4" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -224,6 +266,9 @@
       <c r="C5" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -235,6 +280,9 @@
       <c r="C6" t="s" s="0">
         <v>31</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -246,6 +294,9 @@
       <c r="C7" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -257,6 +308,9 @@
       <c r="C8" t="s" s="0">
         <v>32</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
@@ -268,6 +322,9 @@
       <c r="C9" t="s" s="0">
         <v>33</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
@@ -278,6 +335,9 @@
       </c>
       <c r="C10" t="s" s="0">
         <v>33</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
